--- a/data/trans_orig/AIRE_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{015AF686-F311-4A1A-8D85-40548BB80AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C928092-9356-470F-84E9-02567532F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2964FD82-D6DE-440E-A47C-4B4F81752200}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{21CF3F98-8F67-4A78-BE02-A46866489AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="197">
   <si>
     <t>Población según los motivos por los que no pagaría para realizar actuaciones que reduzcan la contaminación ambiental en su municipio o lugar de residencia en 2023 (Tasa respuesta: 38,8%)</t>
   </si>
@@ -71,553 +71,559 @@
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>No puedo permitírmelo (económicamente)</t>
   </si>
   <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
   </si>
   <si>
     <t>Ya pago demasiados impuestos</t>
   </si>
   <si>
-    <t>25,43%</t>
+    <t>25,62%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
   <si>
     <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
   </si>
   <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>No me siento responsable de la contaminación del aire</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>10,83%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>No me siento responsable de la contaminación del aire</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>Universitarios</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1032,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FB5AAB-C821-4F11-836F-D8B3521D9D1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3700F6D1-20E3-49F1-9ED4-B854FB977F59}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1153,7 +1159,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>13117</v>
+        <v>12309</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1168,7 +1174,7 @@
         <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>25769</v>
+        <v>23610</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1183,7 +1189,7 @@
         <v>59</v>
       </c>
       <c r="N4" s="7">
-        <v>38886</v>
+        <v>35919</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1204,7 +1210,7 @@
         <v>124</v>
       </c>
       <c r="D5" s="7">
-        <v>89618</v>
+        <v>86084</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1219,7 +1225,7 @@
         <v>298</v>
       </c>
       <c r="I5" s="7">
-        <v>162977</v>
+        <v>150605</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1234,7 +1240,7 @@
         <v>422</v>
       </c>
       <c r="N5" s="7">
-        <v>252595</v>
+        <v>236690</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1255,7 +1261,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>58983</v>
+        <v>55923</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1270,7 +1276,7 @@
         <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>68986</v>
+        <v>62820</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1285,7 +1291,7 @@
         <v>203</v>
       </c>
       <c r="N6" s="7">
-        <v>127968</v>
+        <v>118743</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1306,7 +1312,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>34466</v>
+        <v>30156</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1321,7 +1327,7 @@
         <v>90</v>
       </c>
       <c r="I7" s="7">
-        <v>59625</v>
+        <v>51152</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1336,7 +1342,7 @@
         <v>129</v>
       </c>
       <c r="N7" s="7">
-        <v>94091</v>
+        <v>81308</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1357,7 +1363,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="7">
-        <v>35796</v>
+        <v>33827</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1372,7 +1378,7 @@
         <v>93</v>
       </c>
       <c r="I8" s="7">
-        <v>54234</v>
+        <v>48658</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1387,7 +1393,7 @@
         <v>140</v>
       </c>
       <c r="N8" s="7">
-        <v>90030</v>
+        <v>82485</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1408,7 +1414,7 @@
         <v>306</v>
       </c>
       <c r="D9" s="7">
-        <v>231980</v>
+        <v>218299</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1423,7 +1429,7 @@
         <v>647</v>
       </c>
       <c r="I9" s="7">
-        <v>371590</v>
+        <v>336846</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1438,7 +1444,7 @@
         <v>953</v>
       </c>
       <c r="N9" s="7">
-        <v>603570</v>
+        <v>555145</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1461,7 +1467,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>81090</v>
+        <v>87772</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1470,37 +1476,37 @@
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
       </c>
       <c r="I10" s="7">
-        <v>65976</v>
+        <v>61752</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
       </c>
       <c r="N10" s="7">
-        <v>147066</v>
+        <v>149524</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,46 +1518,46 @@
         <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>195148</v>
+        <v>186999</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
       </c>
       <c r="I11" s="7">
-        <v>339601</v>
+        <v>414437</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>516</v>
       </c>
       <c r="N11" s="7">
-        <v>534749</v>
+        <v>601436</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,46 +1569,46 @@
         <v>337</v>
       </c>
       <c r="D12" s="7">
-        <v>327055</v>
+        <v>315119</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>409</v>
       </c>
       <c r="I12" s="7">
-        <v>274324</v>
+        <v>253957</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>746</v>
       </c>
       <c r="N12" s="7">
-        <v>601379</v>
+        <v>569076</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,28 +1620,28 @@
         <v>135</v>
       </c>
       <c r="D13" s="7">
-        <v>142265</v>
+        <v>128033</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
       </c>
       <c r="I13" s="7">
-        <v>114773</v>
+        <v>100594</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>93</v>
@@ -1644,7 +1650,7 @@
         <v>281</v>
       </c>
       <c r="N13" s="7">
-        <v>257038</v>
+        <v>228627</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>94</v>
@@ -1665,7 +1671,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="7">
-        <v>83808</v>
+        <v>77691</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>97</v>
@@ -1680,7 +1686,7 @@
         <v>129</v>
       </c>
       <c r="I14" s="7">
-        <v>100080</v>
+        <v>86756</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>100</v>
@@ -1695,7 +1701,7 @@
         <v>219</v>
       </c>
       <c r="N14" s="7">
-        <v>183888</v>
+        <v>164447</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>103</v>
@@ -1716,7 +1722,7 @@
         <v>803</v>
       </c>
       <c r="D15" s="7">
-        <v>829367</v>
+        <v>795614</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1731,7 +1737,7 @@
         <v>1096</v>
       </c>
       <c r="I15" s="7">
-        <v>894754</v>
+        <v>917496</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1746,7 +1752,7 @@
         <v>1899</v>
       </c>
       <c r="N15" s="7">
-        <v>1724121</v>
+        <v>1713111</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1769,7 +1775,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>19559</v>
+        <v>18529</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -1784,7 +1790,7 @@
         <v>29</v>
       </c>
       <c r="I16" s="7">
-        <v>21271</v>
+        <v>19726</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -1799,7 +1805,7 @@
         <v>45</v>
       </c>
       <c r="N16" s="7">
-        <v>40830</v>
+        <v>38254</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -1820,7 +1826,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>13485</v>
+        <v>12778</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -1835,7 +1841,7 @@
         <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>22844</v>
+        <v>22210</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -1850,7 +1856,7 @@
         <v>56</v>
       </c>
       <c r="N17" s="7">
-        <v>36328</v>
+        <v>34988</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -1871,7 +1877,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="7">
-        <v>102034</v>
+        <v>103977</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>125</v>
@@ -1886,7 +1892,7 @@
         <v>164</v>
       </c>
       <c r="I18" s="7">
-        <v>111661</v>
+        <v>104785</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>128</v>
@@ -1901,7 +1907,7 @@
         <v>264</v>
       </c>
       <c r="N18" s="7">
-        <v>213695</v>
+        <v>208763</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>131</v>
@@ -1922,7 +1928,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>35659</v>
+        <v>33494</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>134</v>
@@ -1937,7 +1943,7 @@
         <v>48</v>
       </c>
       <c r="I19" s="7">
-        <v>38411</v>
+        <v>34122</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>137</v>
@@ -1952,7 +1958,7 @@
         <v>82</v>
       </c>
       <c r="N19" s="7">
-        <v>74070</v>
+        <v>67616</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>140</v>
@@ -1973,7 +1979,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="7">
-        <v>26639</v>
+        <v>25468</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>143</v>
@@ -1988,7 +1994,7 @@
         <v>56</v>
       </c>
       <c r="I20" s="7">
-        <v>36682</v>
+        <v>33701</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>146</v>
@@ -2003,7 +2009,7 @@
         <v>88</v>
       </c>
       <c r="N20" s="7">
-        <v>63321</v>
+        <v>59169</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>149</v>
@@ -2024,7 +2030,7 @@
         <v>195</v>
       </c>
       <c r="D21" s="7">
-        <v>197376</v>
+        <v>194246</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2039,7 +2045,7 @@
         <v>340</v>
       </c>
       <c r="I21" s="7">
-        <v>230868</v>
+        <v>214544</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2054,7 +2060,7 @@
         <v>535</v>
       </c>
       <c r="N21" s="7">
-        <v>428244</v>
+        <v>408790</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2077,7 +2083,7 @@
         <v>81</v>
       </c>
       <c r="D22" s="7">
-        <v>113767</v>
+        <v>118610</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>152</v>
@@ -2092,7 +2098,7 @@
         <v>160</v>
       </c>
       <c r="I22" s="7">
-        <v>113016</v>
+        <v>105088</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>155</v>
@@ -2107,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="N22" s="7">
-        <v>226783</v>
+        <v>223698</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>158</v>
@@ -2128,46 +2134,46 @@
         <v>328</v>
       </c>
       <c r="D23" s="7">
-        <v>298252</v>
+        <v>285861</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>666</v>
       </c>
       <c r="I23" s="7">
-        <v>525421</v>
+        <v>587253</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>994</v>
       </c>
       <c r="N23" s="7">
-        <v>823673</v>
+        <v>873113</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,46 +2185,46 @@
         <v>518</v>
       </c>
       <c r="D24" s="7">
-        <v>488072</v>
+        <v>475019</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>695</v>
       </c>
       <c r="I24" s="7">
-        <v>454971</v>
+        <v>421563</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>1213</v>
       </c>
       <c r="N24" s="7">
-        <v>943043</v>
+        <v>896582</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,46 +2236,46 @@
         <v>208</v>
       </c>
       <c r="D25" s="7">
-        <v>212389</v>
+        <v>191683</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>284</v>
       </c>
       <c r="I25" s="7">
-        <v>212809</v>
+        <v>185868</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>492</v>
       </c>
       <c r="N25" s="7">
-        <v>425198</v>
+        <v>377551</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,46 +2287,46 @@
         <v>169</v>
       </c>
       <c r="D26" s="7">
-        <v>146244</v>
+        <v>136986</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>278</v>
       </c>
       <c r="I26" s="7">
-        <v>190995</v>
+        <v>169115</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>447</v>
       </c>
       <c r="N26" s="7">
-        <v>337239</v>
+        <v>306101</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2338,7 @@
         <v>1304</v>
       </c>
       <c r="D27" s="7">
-        <v>1258723</v>
+        <v>1208159</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2347,7 +2353,7 @@
         <v>2083</v>
       </c>
       <c r="I27" s="7">
-        <v>1497212</v>
+        <v>1468887</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2362,7 +2368,7 @@
         <v>3387</v>
       </c>
       <c r="N27" s="7">
-        <v>2755936</v>
+        <v>2677045</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2376,7 +2382,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
